--- a/assets/Degree_By_Gender_200812.xlsx
+++ b/assets/Degree_By_Gender_200812.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lrowland/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7989D3-25C7-E74C-A94F-312819514B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCBA4FD-ED18-1E47-9A37-E48C6B84435C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="760" windowWidth="22460" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <r>
       <rPr>
@@ -101,12 +101,6 @@
     <t xml:space="preserve">      Physical sciences</t>
   </si>
   <si>
-    <t xml:space="preserve">      Science technologies/technicians</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Non-STEM</t>
-  </si>
-  <si>
     <t xml:space="preserve">      STEM</t>
   </si>
   <si>
@@ -129,13 +123,10 @@
     <t xml:space="preserve">         Physical sciences</t>
   </si>
   <si>
-    <t xml:space="preserve">         Science technologies/technicians</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Non-STEM</t>
-  </si>
-  <si>
     <t>Field of Study</t>
+  </si>
+  <si>
+    <t>Attained associate's degree</t>
   </si>
 </sst>
 </file>
@@ -179,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -191,6 +182,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,20 +502,20 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+      <c r="C1" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -535,7 +529,7 @@
     </row>
     <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>38.200000000000003</v>
@@ -557,7 +551,7 @@
     </row>
     <row r="3" spans="1:10" ht="128" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>52.5</v>
@@ -580,7 +574,7 @@
     </row>
     <row r="4" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>21.8</v>
@@ -603,7 +597,7 @@
     </row>
     <row r="5" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>42.7</v>
@@ -626,7 +620,7 @@
     </row>
     <row r="6" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -638,7 +632,7 @@
     </row>
     <row r="7" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>62.9</v>
@@ -655,10 +649,8 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -667,25 +659,13 @@
       <c r="H8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="D9" s="1">
-        <v>9.6</v>
-      </c>
-      <c r="E9" s="1">
-        <v>15.3</v>
-      </c>
-      <c r="F9" s="1">
-        <v>34.799999999999997</v>
-      </c>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
       <c r="H9" s="1"/>
       <c r="J9" s="1"/>
     </row>
@@ -699,14 +679,14 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -726,7 +706,7 @@
     </row>
     <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>48.3</v>
@@ -748,7 +728,7 @@
     </row>
     <row r="3" spans="1:10" ht="128" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>59.6</v>
@@ -771,7 +751,7 @@
     </row>
     <row r="4" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>16.3</v>
@@ -795,7 +775,7 @@
     </row>
     <row r="5" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>57.9</v>
@@ -814,7 +794,7 @@
     </row>
     <row r="6" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>55.5</v>
@@ -830,7 +810,7 @@
     </row>
     <row r="7" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>59.2</v>
@@ -847,10 +827,8 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -869,7 +847,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F9" sqref="A8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -879,7 +857,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1025,44 +1003,24 @@
       <c r="H7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
-        <v>35.9</v>
-      </c>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1">
-        <v>23.6</v>
-      </c>
-      <c r="F8" s="1">
-        <v>26.9</v>
-      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
-        <v>29.9</v>
-      </c>
-      <c r="C9" s="1">
-        <v>10.1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>10.6</v>
-      </c>
-      <c r="E9" s="1">
-        <v>14.3</v>
-      </c>
-      <c r="F9" s="1">
-        <v>35</v>
-      </c>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
       <c r="H9" s="1"/>
       <c r="J9" s="1"/>
     </row>
